--- a/FEASIBILITY STUDY/Spec combined.xlsx
+++ b/FEASIBILITY STUDY/Spec combined.xlsx
@@ -5,28 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\L2-DESIGN\FEASIBILITY STUDY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\L2-DESIGN\FEASIBILITY STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6AB570-4238-4232-8AC8-27B5C3100CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CAC1EC-0B81-4179-A41E-A4F17BCEA5B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User specification" sheetId="1" r:id="rId1"/>
     <sheet name="Techincal specification" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>User specification</t>
   </si>
@@ -70,9 +78,6 @@
     <t>1C</t>
   </si>
   <si>
-    <t>Minimum charge rate (C rating)</t>
-  </si>
-  <si>
     <t>Min charge time</t>
   </si>
   <si>
@@ -115,16 +120,55 @@
     <t>Power supply rail voltage</t>
   </si>
   <si>
-    <t>24V</t>
-  </si>
-  <si>
     <t>Minimum capacity</t>
   </si>
   <si>
-    <t>185Wh</t>
-  </si>
-  <si>
     <t>Battery mass maximum</t>
+  </si>
+  <si>
+    <t>50V</t>
+  </si>
+  <si>
+    <t>12S</t>
+  </si>
+  <si>
+    <t>370Wh</t>
+  </si>
+  <si>
+    <t>Depth of discharge</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>Charge time period - 1/f</t>
+  </si>
+  <si>
+    <t>Max charge rate (C rating)</t>
+  </si>
+  <si>
+    <t>100%DOD</t>
+  </si>
+  <si>
+    <t>500 cycles</t>
+  </si>
+  <si>
+    <t>FS 2</t>
+  </si>
+  <si>
+    <t>FoS cycle life</t>
+  </si>
+  <si>
+    <t>Estimated capacity</t>
+  </si>
+  <si>
+    <t>Size (litre)</t>
+  </si>
+  <si>
+    <t>Mass (kg)</t>
+  </si>
+  <si>
+    <t>Wh</t>
   </si>
 </sst>
 </file>
@@ -180,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -198,6 +242,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,86 +524,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252F1252-14C0-49E7-AD01-36C0826662BC}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -566,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -574,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -582,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -590,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -598,62 +652,118 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <f>370/0.9</f>
+        <v>411.11111111111109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>

--- a/FEASIBILITY STUDY/Spec combined.xlsx
+++ b/FEASIBILITY STUDY/Spec combined.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\L2-DESIGN\FEASIBILITY STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CAC1EC-0B81-4179-A41E-A4F17BCEA5B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E19096F-E1FF-410D-9341-7209C38AD727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>User specification</t>
   </si>
@@ -132,9 +132,6 @@
     <t>12S</t>
   </si>
   <si>
-    <t>370Wh</t>
-  </si>
-  <si>
     <t>Depth of discharge</t>
   </si>
   <si>
@@ -169,6 +166,12 @@
   </si>
   <si>
     <t>Wh</t>
+  </si>
+  <si>
+    <t>180Wh</t>
+  </si>
+  <si>
+    <t>est</t>
   </si>
 </sst>
 </file>
@@ -591,15 +594,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252F1252-14C0-49E7-AD01-36C0826662BC}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -662,15 +666,15 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -686,10 +690,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -708,10 +712,10 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -722,48 +726,63 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="9">
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <f>180/0.9</f>
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
-        <f>370/0.9</f>
-        <v>411.11111111111109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="B20">
+        <f>2*90*46*158*10^-9 * 10^3</f>
+        <v>1.3082400000000001</v>
+      </c>
+      <c r="C20">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="B21">
+        <f>1242*2*10^-3</f>
+        <v>2.484</v>
+      </c>
+      <c r="C21">
         <v>2.7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
